--- a/biology/Botanique/Linaigrette_à_feuilles_larges/Linaigrette_à_feuilles_larges.xlsx
+++ b/biology/Botanique/Linaigrette_à_feuilles_larges/Linaigrette_à_feuilles_larges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Linaigrette_%C3%A0_feuilles_larges</t>
+          <t>Linaigrette_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriophorum latifolium
 La Linaigrette à feuilles larges (Eriophorum latifolium) est une plante herbacée vivace de 30 à 60 cm de hauteur de la famille des Cyperaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Linaigrette_%C3%A0_feuilles_larges</t>
+          <t>Linaigrette_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est une plante en touffe lâche, dressée, sans stolons, aux feuilles basales planes et larges de près de 1 cm. Les fleurs hermaphrodites (contrairement aux Carex) sont regroupées en épillets. Elles sont entourées de nombreuses soies blanches qui croissent après la pollinisation, donnant aux inflorescences de 4 à 12 épillets pédonculés et penchés un aspect soyeux ou cotonneux.
 Cette linaigrette se distingue de celle à feuilles étroites (E. angustifolium) par :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Linaigrette_%C3%A0_feuilles_larges</t>
+          <t>Linaigrette_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs:
 Type d'inflorescence: racème d'épis
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Linaigrette_%C3%A0_feuilles_larges</t>
+          <t>Linaigrette_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La linaigrette à feuilles larges est une plante assez rare qui se rencontre dans les marais calcaires, en plaine et jusqu'à 2 100 m d'altitude dans toute l'Europe.
 </t>
